--- a/Analytics/B1/RefereeFirstCard_b1.xlsx
+++ b/Analytics/B1/RefereeFirstCard_b1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="39">
   <si>
     <t>Referee</t>
   </si>
@@ -127,7 +127,13 @@
     <t>Michiel Allaerts</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Arthur Denil</t>
+  </si>
+  <si>
+    <t>Matonga Simonini</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -437,7 +443,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -456,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -492,7 +498,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -522,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -533,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -577,9 +583,20 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -610,10 +627,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +638,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -632,10 +649,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
@@ -643,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -654,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
@@ -665,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -720,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -731,10 +748,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -753,9 +770,31 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -786,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -797,10 +836,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -808,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -819,10 +858,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -830,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -841,10 +880,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -852,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -863,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -874,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -885,10 +924,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -896,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -907,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -918,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -929,10 +968,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -984,10 +1023,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -995,10 +1034,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1045,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1017,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1028,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1039,10 +1078,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1050,10 +1089,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1061,10 +1100,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1072,10 +1111,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -1083,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1094,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1105,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1116,9 +1155,20 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1149,10 +1199,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1160,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1171,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1182,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1193,10 +1243,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1204,10 +1254,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1215,9 +1265,97 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/B1/RefereeFirstCard_b1.xlsx
+++ b/Analytics/B1/RefereeFirstCard_b1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
   <si>
     <t>Referee</t>
   </si>
@@ -55,85 +55,55 @@
     <t>10</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Bert Put</t>
+  </si>
+  <si>
+    <t>Kevin Van Damme</t>
+  </si>
+  <si>
+    <t>Jan Boterberg</t>
+  </si>
+  <si>
+    <t>Bram Van Driessche</t>
+  </si>
+  <si>
+    <t>Wesli De Cremer</t>
+  </si>
+  <si>
+    <t>Nathan Verboomen</t>
+  </si>
+  <si>
+    <t>Michiel Allaerts</t>
+  </si>
+  <si>
+    <t>Simon Bourdeaud'hui</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Bram Van Driessche</t>
-  </si>
-  <si>
-    <t>Wesli De Cremer</t>
-  </si>
-  <si>
     <t>Nicolas Laforge</t>
   </si>
   <si>
-    <t>Nathan Verboomen</t>
+    <t>Jasper Vergoote</t>
+  </si>
+  <si>
+    <t>Lothar D'Hondt</t>
   </si>
   <si>
     <t>Erik Lambrechts</t>
   </si>
   <si>
-    <t>Jan Boterberg</t>
-  </si>
-  <si>
-    <t>Jasper Vergoote</t>
-  </si>
-  <si>
-    <t>Lothar D'Hondt</t>
+    <t>Wim Smet</t>
   </si>
   <si>
     <t>Lawrence Visser</t>
-  </si>
-  <si>
-    <t>Kevin Van Damme</t>
-  </si>
-  <si>
-    <t>Wim Smet</t>
-  </si>
-  <si>
-    <t>Simon Bourdeaud'hui</t>
-  </si>
-  <si>
-    <t>Bert Put</t>
-  </si>
-  <si>
-    <t>Brent Staessens</t>
-  </si>
-  <si>
-    <t>Ken Vermeiren</t>
-  </si>
-  <si>
-    <t>Jonathan Lardot</t>
-  </si>
-  <si>
-    <t>Michiel Allaerts</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Arthur Denil</t>
-  </si>
-  <si>
-    <t>Matonga Simonini</t>
   </si>
 </sst>
 </file>
@@ -197,11 +167,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -209,10 +179,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -220,10 +190,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -231,10 +201,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -242,10 +212,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -253,10 +223,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -264,10 +234,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -275,10 +245,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -286,10 +256,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -297,86 +267,9 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -406,11 +299,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
@@ -418,10 +311,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -429,10 +322,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -440,10 +333,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -451,10 +344,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -462,10 +355,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -473,10 +366,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -484,10 +377,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -495,10 +388,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -506,97 +399,31 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -626,11 +453,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -638,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -649,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -671,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -682,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -693,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -704,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -715,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -726,75 +553,20 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -824,8 +596,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -836,10 +608,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -847,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -858,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -872,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -880,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -891,10 +663,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -902,10 +674,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +685,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -924,75 +696,9 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1022,8 +728,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -1034,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1045,10 +751,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1056,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1067,108 +773,9 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1199,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1210,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1221,141 +828,9 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/B1/RefereeFirstCard_b1.xlsx
+++ b/Analytics/B1/RefereeFirstCard_b1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Referee</t>
   </si>
@@ -55,6 +55,18 @@
     <t>10</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -64,46 +76,52 @@
     <t>Kevin Van Damme</t>
   </si>
   <si>
+    <t>Lawrence Visser</t>
+  </si>
+  <si>
     <t>Jan Boterberg</t>
   </si>
   <si>
+    <t>Nathan Verboomen</t>
+  </si>
+  <si>
+    <t>Simon Bourdeaud'hui</t>
+  </si>
+  <si>
+    <t>Lothar D'Hondt</t>
+  </si>
+  <si>
     <t>Bram Van Driessche</t>
   </si>
   <si>
     <t>Wesli De Cremer</t>
   </si>
   <si>
-    <t>Nathan Verboomen</t>
+    <t>Nicolas Laforge</t>
   </si>
   <si>
     <t>Michiel Allaerts</t>
   </si>
   <si>
-    <t>Simon Bourdeaud'hui</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Nicolas Laforge</t>
+    <t>Wim Smet</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>Jasper Vergoote</t>
   </si>
   <si>
-    <t>Lothar D'Hondt</t>
+    <t>Klass Clerkx</t>
   </si>
   <si>
     <t>Erik Lambrechts</t>
-  </si>
-  <si>
-    <t>Wim Smet</t>
-  </si>
-  <si>
-    <t>Lawrence Visser</t>
   </si>
 </sst>
 </file>
@@ -167,8 +185,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -179,21 +197,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,10 +219,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,10 +230,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,10 +241,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,10 +252,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,10 +263,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +274,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -267,9 +285,53 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -311,10 +373,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -322,10 +384,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -333,10 +395,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -344,10 +406,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -355,7 +417,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -366,10 +428,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -377,10 +439,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -388,7 +450,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -399,7 +461,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -407,10 +469,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -418,12 +480,67 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -465,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -476,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -487,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +626,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -520,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -531,10 +648,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -542,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -553,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -561,10 +678,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -608,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -619,10 +736,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -630,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -641,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -652,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -663,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -696,9 +813,42 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -740,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -751,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -762,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -773,9 +923,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -806,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -817,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -828,9 +989,20 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.0</v>
       </c>
     </row>
